--- a/Section Schedules.xlsx
+++ b/Section Schedules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17040" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Section 010" sheetId="3" r:id="rId1"/>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,8 +112,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -311,18 +333,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -359,8 +381,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,281 +677,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="43">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="43">
         <v>0.375</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="24"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="44">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="44">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="43">
         <v>0.5</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="44">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="44">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="44">
         <v>0.625</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="43">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="43">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="22" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="43">
         <v>0.75</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="43">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="43">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -930,7 +959,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="43">
         <v>0.875</v>
       </c>
       <c r="B28" s="4"/>
@@ -949,7 +978,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,30 +987,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -990,7 +1019,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1000,7 +1029,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="43">
         <v>0.375</v>
       </c>
       <c r="B4" s="4"/>
@@ -1009,162 +1038,162 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="43">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="43">
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="43">
         <v>0.5</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="43">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="43">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="43">
         <v>0.625</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="43">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="43">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="4"/>
@@ -1172,57 +1201,57 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="43">
         <v>0.75</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="43">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="43">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="4"/>
@@ -1232,7 +1261,7 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1240,7 +1269,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="43">
         <v>0.875</v>
       </c>
       <c r="B28" s="4"/>
@@ -1258,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,27 +1297,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="43">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="4"/>
@@ -1298,251 +1327,251 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="43">
         <v>0.375</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="43">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="43">
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="43">
         <v>0.5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="44">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="34" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="44">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="34" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="44">
         <v>0.625</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="44">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="43">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="43">
         <v>0.75</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="43">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="43">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1550,7 +1579,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="43">
         <v>0.875</v>
       </c>
       <c r="B28" s="4"/>
